--- a/ipl/Kolkata Knight Riders/Sunil Narine.xlsx
+++ b/ipl/Kolkata Knight Riders/Sunil Narine.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -489,9 +489,299 @@
         <v>18th Match (N), Wankhede, April 24, 2021, Indian Premier League</v>
       </c>
     </row>
+    <row r="4">
+      <c r="A4" t="str">
+        <v>Sunil Narine</v>
+      </c>
+      <c r="B4" t="str">
+        <v>0</v>
+      </c>
+      <c r="C4" t="str">
+        <v>1</v>
+      </c>
+      <c r="D4" t="str">
+        <v>0</v>
+      </c>
+      <c r="E4" t="str">
+        <v>0</v>
+      </c>
+      <c r="F4" t="str">
+        <v>0.00</v>
+      </c>
+      <c r="G4" t="str">
+        <v>Delhi Capitals</v>
+      </c>
+      <c r="H4" t="str">
+        <v>KKR won by 3 wickets (with 1 ball remaining)</v>
+      </c>
+      <c r="I4" t="str">
+        <v>Qualifier 2 (N), Sharjah, October 13, 2021, Indian Premier League</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="str">
+        <v>Sunil Narine</v>
+      </c>
+      <c r="B5" t="str">
+        <v>6</v>
+      </c>
+      <c r="C5" t="str">
+        <v>7</v>
+      </c>
+      <c r="D5" t="str">
+        <v>1</v>
+      </c>
+      <c r="E5" t="str">
+        <v>0</v>
+      </c>
+      <c r="F5" t="str">
+        <v>85.71</v>
+      </c>
+      <c r="G5" t="str">
+        <v>Rajasthan Royals</v>
+      </c>
+      <c r="H5" t="str">
+        <v>Royals won by 6 wickets (with 7 balls remaining)</v>
+      </c>
+      <c r="I5" t="str">
+        <v>18th Match (N), Wankhede, April 24, 2021, Indian Premier League</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="str">
+        <v>Sunil Narine</v>
+      </c>
+      <c r="B6" t="str">
+        <v>0</v>
+      </c>
+      <c r="C6" t="str">
+        <v>4</v>
+      </c>
+      <c r="D6" t="str">
+        <v>0</v>
+      </c>
+      <c r="E6" t="str">
+        <v>0</v>
+      </c>
+      <c r="F6" t="str">
+        <v>0.00</v>
+      </c>
+      <c r="G6" t="str">
+        <v>Punjab Kings</v>
+      </c>
+      <c r="H6" t="str">
+        <v>KKR won by 5 wickets (with 20 balls remaining)</v>
+      </c>
+      <c r="I6" t="str">
+        <v>21st Match (N), Ahmedabad, April 26, 2021, Indian Premier League</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="str">
+        <v>Sunil Narine</v>
+      </c>
+      <c r="B7" t="str">
+        <v>0</v>
+      </c>
+      <c r="C7" t="str">
+        <v>1</v>
+      </c>
+      <c r="D7" t="str">
+        <v>0</v>
+      </c>
+      <c r="E7" t="str">
+        <v>0</v>
+      </c>
+      <c r="F7" t="str">
+        <v>0.00</v>
+      </c>
+      <c r="G7" t="str">
+        <v>Delhi Capitals</v>
+      </c>
+      <c r="H7" t="str">
+        <v>Capitals won by 7 wickets (with 21 balls remaining)</v>
+      </c>
+      <c r="I7" t="str">
+        <v>25th Match (N), Ahmedabad, April 29, 2021, Indian Premier League</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="str">
+        <v>Sunil Narine</v>
+      </c>
+      <c r="B8" t="str">
+        <v>3</v>
+      </c>
+      <c r="C8" t="str">
+        <v>3</v>
+      </c>
+      <c r="D8" t="str">
+        <v>0</v>
+      </c>
+      <c r="E8" t="str">
+        <v>0</v>
+      </c>
+      <c r="F8" t="str">
+        <v>100.00</v>
+      </c>
+      <c r="G8" t="str">
+        <v>Punjab Kings</v>
+      </c>
+      <c r="H8" t="str">
+        <v>Punjab Kings won by 5 wickets (with 3 balls remaining)</v>
+      </c>
+      <c r="I8" t="str">
+        <v>45th Match (N), Dubai (DSC), October 01, 2021, Indian Premier League</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="str">
+        <v>Sunil Narine</v>
+      </c>
+      <c r="B9" t="str">
+        <v>26</v>
+      </c>
+      <c r="C9" t="str">
+        <v>15</v>
+      </c>
+      <c r="D9" t="str">
+        <v>0</v>
+      </c>
+      <c r="E9" t="str">
+        <v>3</v>
+      </c>
+      <c r="F9" t="str">
+        <v>173.33</v>
+      </c>
+      <c r="G9" t="str">
+        <v>Royal Challengers Bangalore</v>
+      </c>
+      <c r="H9" t="str">
+        <v>KKR won by 4 wickets (with 2 balls remaining)</v>
+      </c>
+      <c r="I9" t="str">
+        <v>Eliminator (N), Sharjah, October 11, 2021, Indian Premier League</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="str">
+        <v>Sunil Narine</v>
+      </c>
+      <c r="B10" t="str">
+        <v>2</v>
+      </c>
+      <c r="C10" t="str">
+        <v>2</v>
+      </c>
+      <c r="D10" t="str">
+        <v>0</v>
+      </c>
+      <c r="E10" t="str">
+        <v>0</v>
+      </c>
+      <c r="F10" t="str">
+        <v>100.00</v>
+      </c>
+      <c r="G10" t="str">
+        <v>Chennai Super Kings</v>
+      </c>
+      <c r="H10" t="str">
+        <v>Super Kings won by 27 runs</v>
+      </c>
+      <c r="I10" t="str">
+        <v>Final (N), Dubai (DSC), October 15, 2021, Indian Premier League</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="str">
+        <v>Sunil Narine</v>
+      </c>
+      <c r="B11" t="str">
+        <v>0</v>
+      </c>
+      <c r="C11" t="str">
+        <v>1</v>
+      </c>
+      <c r="D11" t="str">
+        <v>0</v>
+      </c>
+      <c r="E11" t="str">
+        <v>0</v>
+      </c>
+      <c r="F11" t="str">
+        <v>0.00</v>
+      </c>
+      <c r="G11" t="str">
+        <v>Chennai Super Kings</v>
+      </c>
+      <c r="H11" t="str">
+        <v>Super Kings won by 2 wickets</v>
+      </c>
+      <c r="I11" t="str">
+        <v>38th Match, Abu Dhabi, September 26, 2021, Indian Premier League</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="str">
+        <v>Sunil Narine</v>
+      </c>
+      <c r="B12" t="str">
+        <v>21</v>
+      </c>
+      <c r="C12" t="str">
+        <v>10</v>
+      </c>
+      <c r="D12" t="str">
+        <v>1</v>
+      </c>
+      <c r="E12" t="str">
+        <v>2</v>
+      </c>
+      <c r="F12" t="str">
+        <v>210.00</v>
+      </c>
+      <c r="G12" t="str">
+        <v>Delhi Capitals</v>
+      </c>
+      <c r="H12" t="str">
+        <v>KKR won by 3 wickets (with 10 balls remaining)</v>
+      </c>
+      <c r="I12" t="str">
+        <v>41st Match, Sharjah, September 28, 2021, Indian Premier League</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="str">
+        <v>Sunil Narine</v>
+      </c>
+      <c r="B13" t="str">
+        <v>4</v>
+      </c>
+      <c r="C13" t="str">
+        <v>3</v>
+      </c>
+      <c r="D13" t="str">
+        <v>1</v>
+      </c>
+      <c r="E13" t="str">
+        <v>0</v>
+      </c>
+      <c r="F13" t="str">
+        <v>133.33</v>
+      </c>
+      <c r="G13" t="str">
+        <v>Chennai Super Kings</v>
+      </c>
+      <c r="H13" t="str">
+        <v>Super Kings won by 18 runs</v>
+      </c>
+      <c r="I13" t="str">
+        <v>15th Match (N), Wankhede, April 21, 2021, Indian Premier League</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:I3"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:I13"/>
   </ignoredErrors>
 </worksheet>
 </file>